--- a/VV.xlsx
+++ b/VV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Docs New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Veterans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="56">
   <si>
     <t>NOMS</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>ETAT DES DETTES DE FIN D' Mars 2023</t>
+  </si>
+  <si>
+    <t>VETERANS FC DE NGWELE VV BONANERIvv</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
